--- a/main/ig/StructureDefinition-fr-medicationstatement-reconciliation-properties.xlsx
+++ b/main/ig/StructureDefinition-fr-medicationstatement-reconciliation-properties.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-26T13:24:30+00:00</t>
+    <t>2025-04-11T07:24:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-fr-medicationstatement-reconciliation-properties.xlsx
+++ b/main/ig/StructureDefinition-fr-medicationstatement-reconciliation-properties.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-11T07:24:27+00:00</t>
+    <t>2025-04-30T16:49:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1806,42 +1806,42 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="74.6484375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="48.25390625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="8.95703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="63.99609375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="41.37109375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="10.8515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="7.6796875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="165.77734375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="142.125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="46.63671875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="84.00390625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="18.1875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.53515625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="39.984375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="72.01953125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="15.59375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="24.98046875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="21.4140625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/main/ig/StructureDefinition-fr-medicationstatement-reconciliation-properties.xlsx
+++ b/main/ig/StructureDefinition-fr-medicationstatement-reconciliation-properties.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-30T16:49:21+00:00</t>
+    <t>2025-05-05T07:40:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-fr-medicationstatement-reconciliation-properties.xlsx
+++ b/main/ig/StructureDefinition-fr-medicationstatement-reconciliation-properties.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://hl7.fr/fhir/fr/medication/StructureDefinition/fr-medicationstatement-reconciliation-properties</t>
+    <t>https://hl7.fr/ig/fhir/medication/StructureDefinition/fr-medicationstatement-reconciliation-properties</t>
   </si>
   <si>
     <t>Version</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-05T07:40:26+00:00</t>
+    <t>2025-05-05T08:11:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -447,7 +447,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>https://hl7.fr/fhir/fr/medication/ValueSet/fr-medication-reconciliation-status</t>
+    <t>https://hl7.fr/ig/fhir/medication/ValueSet/fr-medication-reconciliation-status</t>
   </si>
   <si>
     <t>Extension.value[x]</t>
@@ -528,7 +528,7 @@
     <t>fr-editorial-status</t>
   </si>
   <si>
-    <t>https://hl7.fr/fhir/fr/medication/ValueSet/fr-editorial-status</t>
+    <t>https://hl7.fr/ig/fhir/medication/ValueSet/fr-editorial-status</t>
   </si>
   <si>
     <t>Extension.extension:status.extension:value.extension:author</t>
@@ -819,7 +819,7 @@
     <t>fr-medication-reconciliation-qualified-discrepancy</t>
   </si>
   <si>
-    <t>https://hl7.fr/fhir/fr/medication/ValueSet/fr-medication-reconciliation-qualified-discrepancy</t>
+    <t>https://hl7.fr/ig/fhir/medication/ValueSet/fr-medication-reconciliation-qualified-discrepancy</t>
   </si>
   <si>
     <t>Extension.extension:discrepancy.extension:value.extension:date</t>
@@ -1120,7 +1120,7 @@
     <t>fr-medication-reconciliation-type</t>
   </si>
   <si>
-    <t>https://hl7.fr/fhir/fr/medication/ValueSet/fr-medication-reconciliation-type</t>
+    <t>https://hl7.fr/ig/fhir/medication/ValueSet/fr-medication-reconciliation-type</t>
   </si>
   <si>
     <t>Extension.extension:type.extension:value.extension:date</t>
@@ -1261,7 +1261,7 @@
     <t>fr-medication-reconciliation-outcome</t>
   </si>
   <si>
-    <t>https://hl7.fr/fhir/fr/medication/ValueSet/fr-medication-reconciliation-outcome</t>
+    <t>https://hl7.fr/ig/fhir/medication/ValueSet/fr-medication-reconciliation-outcome</t>
   </si>
   <si>
     <t>Extension.extension:outcome.extension:value.extension:date</t>
@@ -1402,7 +1402,7 @@
     <t>fr-medication-reconciliation-resolution</t>
   </si>
   <si>
-    <t>https://hl7.fr/fhir/fr/medication/ValueSet/fr-medication-reconciliation-resolution</t>
+    <t>https://hl7.fr/ig/fhir/medication/ValueSet/fr-medication-reconciliation-resolution</t>
   </si>
   <si>
     <t>Extension.extension:resolution.extension:value.extension:date</t>
@@ -1831,7 +1831,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="39.984375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="72.01953125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="72.25390625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>

--- a/main/ig/StructureDefinition-fr-medicationstatement-reconciliation-properties.xlsx
+++ b/main/ig/StructureDefinition-fr-medicationstatement-reconciliation-properties.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-05T08:11:38+00:00</t>
+    <t>2025-05-05T10:03:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-fr-medicationstatement-reconciliation-properties.xlsx
+++ b/main/ig/StructureDefinition-fr-medicationstatement-reconciliation-properties.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-05T10:03:44+00:00</t>
+    <t>2025-07-09T18:07:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-fr-medicationstatement-reconciliation-properties.xlsx
+++ b/main/ig/StructureDefinition-fr-medicationstatement-reconciliation-properties.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-09T18:07:38+00:00</t>
+    <t>2025-07-21T09:49:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-fr-medicationstatement-reconciliation-properties.xlsx
+++ b/main/ig/StructureDefinition-fr-medicationstatement-reconciliation-properties.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-22T19:10:19+00:00</t>
+    <t>2025-07-31T09:35:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-fr-medicationstatement-reconciliation-properties.xlsx
+++ b/main/ig/StructureDefinition-fr-medicationstatement-reconciliation-properties.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-31T09:35:58+00:00</t>
+    <t>2025-08-08T09:43:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-fr-medicationstatement-reconciliation-properties.xlsx
+++ b/main/ig/StructureDefinition-fr-medicationstatement-reconciliation-properties.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-08T09:43:11+00:00</t>
+    <t>2025-08-21T08:04:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-fr-medicationstatement-reconciliation-properties.xlsx
+++ b/main/ig/StructureDefinition-fr-medicationstatement-reconciliation-properties.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-21T08:04:49+00:00</t>
+    <t>2025-09-23T14:10:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-fr-medicationstatement-reconciliation-properties.xlsx
+++ b/main/ig/StructureDefinition-fr-medicationstatement-reconciliation-properties.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T14:10:57+00:00</t>
+    <t>2025-10-24T13:47:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-fr-medicationstatement-reconciliation-properties.xlsx
+++ b/main/ig/StructureDefinition-fr-medicationstatement-reconciliation-properties.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-24T13:47:42+00:00</t>
+    <t>2026-01-20T09:44:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-fr-medicationstatement-reconciliation-properties.xlsx
+++ b/main/ig/StructureDefinition-fr-medicationstatement-reconciliation-properties.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-20T09:44:19+00:00</t>
+    <t>2026-01-20T11:00:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
